--- a/data/05_input/zm.rn20h.xlsx
+++ b/data/05_input/zm.rn20h.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/087D0E8D-10E8-460E-B339-9F81B5A5A947/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/barn/data/06_local_list_excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/5B904A50-1004-45D9-8956-0911F4FD11A8/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/barn/data/05_input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56935982-1F96-884B-AD68-D4E1203FC97E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F7D12F-8688-8D44-95DA-994E766D9E29}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17360" yWindow="13740" windowWidth="13900" windowHeight="11260" xr2:uid="{67760308-83C7-244E-9309-67C566F6D356}"/>
+    <workbookView xWindow="12100" yWindow="1200" windowWidth="13900" windowHeight="19800" xr2:uid="{67760308-83C7-244E-9309-67C566F6D356}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="104">
   <si>
     <t>SampleID</t>
   </si>
@@ -66,36 +66,18 @@
     <t>EM601</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200401_A00223_0352_AH75N7DSXY/Springer_Project_073/tf1_S48_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200401_A00223_0352_AH75N7DSXY/Springer_Project_073/tf1_S48_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s02</t>
   </si>
   <si>
     <t>Below</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200401_A00223_0352_AH75N7DSXY/Springer_Project_073/tf2_S49_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200401_A00223_0352_AH75N7DSXY/Springer_Project_073/tf2_S49_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s03</t>
   </si>
   <si>
     <t>EM649</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200401_A00223_0352_AH75N7DSXY/Springer_Project_073/tf3_S50_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200401_A00223_0352_AH75N7DSXY/Springer_Project_073/tf3_S50_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s04</t>
   </si>
   <si>
@@ -105,21 +87,9 @@
     <t>EM604</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200401_A00223_0352_AH75N7DSXY/Springer_Project_073/tf4_S51_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200401_A00223_0352_AH75N7DSXY/Springer_Project_073/tf4_S51_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s05</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200401_A00223_0352_AH75N7DSXY/Springer_Project_073/tf5_S52_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200401_A00223_0352_AH75N7DSXY/Springer_Project_073/tf5_S52_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s06</t>
   </si>
   <si>
@@ -129,12 +99,6 @@
     <t>EM596</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200401_A00223_0352_AH75N7DSXY/Springer_Project_073/tf6_S53_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200401_A00223_0352_AH75N7DSXY/Springer_Project_073/tf6_S53_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s07</t>
   </si>
   <si>
@@ -144,60 +108,24 @@
     <t>EM597</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200401_A00223_0352_AH75N7DSXY/Springer_Project_073/tf7_S54_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200401_A00223_0352_AH75N7DSXY/Springer_Project_073/tf7_S54_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s08</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200401_A00223_0352_AH75N7DSXY/Springer_Project_073/tf8_S55_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200401_A00223_0352_AH75N7DSXY/Springer_Project_073/tf8_S55_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s09</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200401_A00223_0352_AH75N7DSXY/Springer_Project_073/tf9_S56_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200401_A00223_0352_AH75N7DSXY/Springer_Project_073/tf9_S56_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s10</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200401_A00223_0352_AH75N7DSXY/Springer_Project_073/tf10_S57_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200401_A00223_0352_AH75N7DSXY/Springer_Project_073/tf10_S57_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s11</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200401_A00223_0352_AH75N7DSXY/Springer_Project_073/tf11_S58_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200401_A00223_0352_AH75N7DSXY/Springer_Project_073/tf11_S58_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s12</t>
   </si>
   <si>
     <t>EM652</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200401_A00223_0352_AH75N7DSXY/Springer_Project_073/tf12_S59_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200401_A00223_0352_AH75N7DSXY/Springer_Project_073/tf12_S59_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s13</t>
   </si>
   <si>
@@ -207,33 +135,15 @@
     <t>EM642</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200401_A00223_0352_AH75N7DSXY/Springer_Project_073/tf13_S60_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200401_A00223_0352_AH75N7DSXY/Springer_Project_073/tf13_S60_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s14</t>
   </si>
   <si>
     <t>EM608</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200401_A00223_0352_AH75N7DSXY/Springer_Project_073/tf14_S61_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200401_A00223_0352_AH75N7DSXY/Springer_Project_073/tf14_S61_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s15</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200401_A00223_0352_AH75N7DSXY/Springer_Project_073/tf15_S62_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200401_A00223_0352_AH75N7DSXY/Springer_Project_073/tf15_S62_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s16</t>
   </si>
   <si>
@@ -243,33 +153,15 @@
     <t>EM599</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200401_A00223_0352_AH75N7DSXY/Springer_Project_073/tf16_S63_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200401_A00223_0352_AH75N7DSXY/Springer_Project_073/tf16_S63_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s17</t>
   </si>
   <si>
     <t>EM647</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200401_A00223_0352_AH75N7DSXY/Springer_Project_073/tf17_S64_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200401_A00223_0352_AH75N7DSXY/Springer_Project_073/tf17_S64_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s18</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200401_A00223_0352_AH75N7DSXY/Springer_Project_073/tf18_S65_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200401_A00223_0352_AH75N7DSXY/Springer_Project_073/tf18_S65_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s19</t>
   </si>
   <si>
@@ -279,30 +171,12 @@
     <t>EM619</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200401_A00223_0352_AH75N7DSXY/Springer_Project_073/tf19_S66_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200401_A00223_0352_AH75N7DSXY/Springer_Project_073/tf19_S66_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s20</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200401_A00223_0352_AH75N7DSXY/Springer_Project_073/tf20_S67_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200401_A00223_0352_AH75N7DSXY/Springer_Project_073/tf20_S67_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s21</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200401_A00223_0352_AH75N7DSXY/Springer_Project_073/tf21_S68_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200401_A00223_0352_AH75N7DSXY/Springer_Project_073/tf21_S68_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s22</t>
   </si>
   <si>
@@ -312,28 +186,157 @@
     <t>EM618</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200401_A00223_0352_AH75N7DSXY/Springer_Project_073/tf22_S69_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200401_A00223_0352_AH75N7DSXY/Springer_Project_073/tf22_S69_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s23</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200401_A00223_0352_AH75N7DSXY/Springer_Project_073/tf23_S70_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200401_A00223_0352_AH75N7DSXY/Springer_Project_073/tf23_S70_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s24</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200401_A00223_0352_AH75N7DSXY/Springer_Project_073/tf24_S71_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200401_A00223_0352_AH75N7DSXY/Springer_Project_073/tf24_S71_R2_001.fastq.gz</t>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>200401_A00223_0352_AH75N7DSXY/tf1_S48_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200401_A00223_0352_AH75N7DSXY/tf1_S48_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200401_A00223_0352_AH75N7DSXY/tf2_S49_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200401_A00223_0352_AH75N7DSXY/tf2_S49_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200401_A00223_0352_AH75N7DSXY/tf3_S50_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200401_A00223_0352_AH75N7DSXY/tf3_S50_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200401_A00223_0352_AH75N7DSXY/tf4_S51_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200401_A00223_0352_AH75N7DSXY/tf4_S51_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200401_A00223_0352_AH75N7DSXY/tf5_S52_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200401_A00223_0352_AH75N7DSXY/tf5_S52_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200401_A00223_0352_AH75N7DSXY/tf6_S53_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200401_A00223_0352_AH75N7DSXY/tf6_S53_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200401_A00223_0352_AH75N7DSXY/tf7_S54_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200401_A00223_0352_AH75N7DSXY/tf7_S54_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200401_A00223_0352_AH75N7DSXY/tf8_S55_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200401_A00223_0352_AH75N7DSXY/tf8_S55_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200401_A00223_0352_AH75N7DSXY/tf9_S56_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200401_A00223_0352_AH75N7DSXY/tf9_S56_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200401_A00223_0352_AH75N7DSXY/tf10_S57_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200401_A00223_0352_AH75N7DSXY/tf10_S57_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200401_A00223_0352_AH75N7DSXY/tf11_S58_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200401_A00223_0352_AH75N7DSXY/tf11_S58_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200401_A00223_0352_AH75N7DSXY/tf12_S59_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200401_A00223_0352_AH75N7DSXY/tf12_S59_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200401_A00223_0352_AH75N7DSXY/tf13_S60_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200401_A00223_0352_AH75N7DSXY/tf13_S60_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200401_A00223_0352_AH75N7DSXY/tf14_S61_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200401_A00223_0352_AH75N7DSXY/tf14_S61_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200401_A00223_0352_AH75N7DSXY/tf15_S62_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200401_A00223_0352_AH75N7DSXY/tf15_S62_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200401_A00223_0352_AH75N7DSXY/tf16_S63_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200401_A00223_0352_AH75N7DSXY/tf16_S63_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200401_A00223_0352_AH75N7DSXY/tf17_S64_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200401_A00223_0352_AH75N7DSXY/tf17_S64_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200401_A00223_0352_AH75N7DSXY/tf18_S65_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200401_A00223_0352_AH75N7DSXY/tf18_S65_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200401_A00223_0352_AH75N7DSXY/tf19_S66_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200401_A00223_0352_AH75N7DSXY/tf19_S66_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200401_A00223_0352_AH75N7DSXY/tf20_S67_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200401_A00223_0352_AH75N7DSXY/tf20_S67_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200401_A00223_0352_AH75N7DSXY/tf21_S68_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200401_A00223_0352_AH75N7DSXY/tf21_S68_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200401_A00223_0352_AH75N7DSXY/tf22_S69_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200401_A00223_0352_AH75N7DSXY/tf22_S69_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200401_A00223_0352_AH75N7DSXY/tf23_S70_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200401_A00223_0352_AH75N7DSXY/tf23_S70_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200401_A00223_0352_AH75N7DSXY/tf24_S71_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200401_A00223_0352_AH75N7DSXY/tf24_S71_R2_001.fastq.gz</t>
   </si>
 </sst>
 </file>
@@ -689,7 +692,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="H2" sqref="H2:I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -742,22 +745,22 @@
       <c r="E2">
         <v>2</v>
       </c>
-      <c r="F2" t="b">
-        <v>1</v>
+      <c r="F2" t="s">
+        <v>55</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -768,586 +771,586 @@
       <c r="E3">
         <v>1</v>
       </c>
-      <c r="F3" t="b">
-        <v>1</v>
+      <c r="F3" t="s">
+        <v>55</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="I3" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
-      <c r="F4" t="b">
-        <v>1</v>
+      <c r="F4" t="s">
+        <v>55</v>
       </c>
       <c r="H4" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="I4" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>2</v>
       </c>
-      <c r="F5" t="b">
-        <v>1</v>
+      <c r="F5" t="s">
+        <v>55</v>
       </c>
       <c r="H5" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="I5" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
-      <c r="F6" t="b">
-        <v>1</v>
+      <c r="F6" t="s">
+        <v>55</v>
       </c>
       <c r="H6" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="I6" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
       </c>
-      <c r="F7" t="b">
-        <v>1</v>
+      <c r="F7" t="s">
+        <v>55</v>
       </c>
       <c r="H7" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="I7" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E8">
         <v>3</v>
       </c>
-      <c r="F8" t="b">
-        <v>1</v>
+      <c r="F8" t="s">
+        <v>55</v>
       </c>
       <c r="H8" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="I8" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
-      <c r="F9" t="b">
-        <v>1</v>
+      <c r="F9" t="s">
+        <v>55</v>
       </c>
       <c r="H9" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="I9" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>2</v>
       </c>
-      <c r="F10" t="b">
-        <v>1</v>
+      <c r="F10" t="s">
+        <v>55</v>
       </c>
       <c r="H10" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="I10" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
-      <c r="F11" t="b">
-        <v>1</v>
+      <c r="F11" t="s">
+        <v>55</v>
       </c>
       <c r="H11" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="I11" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>2</v>
       </c>
-      <c r="F12" t="b">
-        <v>1</v>
+      <c r="F12" t="s">
+        <v>55</v>
       </c>
       <c r="H12" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="I12" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="E13">
         <v>3</v>
       </c>
-      <c r="F13" t="b">
-        <v>1</v>
+      <c r="F13" t="s">
+        <v>55</v>
       </c>
       <c r="H13" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="I13" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="D14" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="E14">
         <v>3</v>
       </c>
-      <c r="F14" t="b">
-        <v>1</v>
+      <c r="F14" t="s">
+        <v>55</v>
       </c>
       <c r="H14" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="I14" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
         <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="D15" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="E15">
         <v>2</v>
       </c>
-      <c r="F15" t="b">
-        <v>1</v>
+      <c r="F15" t="s">
+        <v>55</v>
       </c>
       <c r="H15" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="I15" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="D16" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
-      <c r="F16" t="b">
-        <v>1</v>
+      <c r="F16" t="s">
+        <v>55</v>
       </c>
       <c r="H16" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="I16" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="D17" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
-      <c r="F17" t="b">
-        <v>1</v>
+      <c r="F17" t="s">
+        <v>55</v>
       </c>
       <c r="H17" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="I17" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="D18" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="E18">
         <v>3</v>
       </c>
-      <c r="F18" t="b">
-        <v>1</v>
+      <c r="F18" t="s">
+        <v>55</v>
       </c>
       <c r="H18" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I18" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B19" t="s">
         <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="D19" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="E19">
         <v>2</v>
       </c>
-      <c r="F19" t="b">
-        <v>1</v>
+      <c r="F19" t="s">
+        <v>55</v>
       </c>
       <c r="H19" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="I19" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="B20" t="s">
         <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="D20" t="s">
-        <v>83</v>
+        <v>47</v>
       </c>
       <c r="E20">
         <v>3</v>
       </c>
-      <c r="F20" t="b">
-        <v>1</v>
+      <c r="F20" t="s">
+        <v>55</v>
       </c>
       <c r="H20" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="I20" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C21" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="D21" t="s">
-        <v>83</v>
+        <v>47</v>
       </c>
       <c r="E21">
         <v>2</v>
       </c>
-      <c r="F21" t="b">
-        <v>1</v>
+      <c r="F21" t="s">
+        <v>55</v>
       </c>
       <c r="H21" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="I21" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C22" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="D22" t="s">
-        <v>83</v>
+        <v>47</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
-      <c r="F22" t="b">
-        <v>1</v>
+      <c r="F22" t="s">
+        <v>55</v>
       </c>
       <c r="H22" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="I22" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="B23" t="s">
         <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="D23" t="s">
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="E23">
         <v>3</v>
       </c>
-      <c r="F23" t="b">
-        <v>1</v>
+      <c r="F23" t="s">
+        <v>55</v>
       </c>
       <c r="H23" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="I23" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="B24" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C24" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="D24" t="s">
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="E24">
         <v>2</v>
       </c>
-      <c r="F24" t="b">
-        <v>1</v>
+      <c r="F24" t="s">
+        <v>55</v>
       </c>
       <c r="H24" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I24" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>100</v>
+        <v>54</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C25" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="D25" t="s">
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="E25">
         <v>1</v>
       </c>
-      <c r="F25" t="b">
-        <v>1</v>
+      <c r="F25" t="s">
+        <v>55</v>
       </c>
       <c r="H25" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I25" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
